--- a/05-synflood/graphs.xlsx
+++ b/05-synflood/graphs.xlsx
@@ -8,16 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b670a29c0a991bc2/Codice/github/unitn-m-ot/05-synflood/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{FDD40AFC-745F-0B46-AE92-9F593E38170B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85D6C832-D0DC-8C40-B390-D5CC1A32C0A5}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{FDD40AFC-745F-0B46-AE92-9F593E38170B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{358887B0-EEA3-3B4F-93D5-305ADE43981B}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="28040" windowHeight="16060" activeTab="1" xr2:uid="{0F94186E-9E54-6D4F-815C-D7D5A8E68F8F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14380" activeTab="5" xr2:uid="{0F94186E-9E54-6D4F-815C-D7D5A8E68F8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Cookies" sheetId="4" r:id="rId1"/>
     <sheet name="NoCookies" sheetId="3" r:id="rId2"/>
     <sheet name="Extra1" sheetId="2" r:id="rId3"/>
     <sheet name="Extra2" sheetId="1" r:id="rId4"/>
+    <sheet name="Foglio1" sheetId="5" r:id="rId5"/>
+    <sheet name="Foglio2" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Foglio1!$K$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Foglio1!$K$2:$K$37</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Foglio1!$L$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Foglio1!$L$2:$L$37</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Foglio1!$K$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Foglio1!$K$2:$K$37</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Foglio1!$L$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Foglio1!$L$2:$L$37</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="20">
   <si>
     <t>Address A</t>
   </si>
@@ -92,6 +104,12 @@
   <si>
     <t>5.6.7.8</t>
   </si>
+  <si>
+    <t>1,1,2,3</t>
+  </si>
+  <si>
+    <t>5,6,7,8</t>
+  </si>
 </sst>
 </file>
 
@@ -101,10 +119,20 @@
     <numFmt numFmtId="164" formatCode="#,##0.0000000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Fira Code Light"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,12 +158,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -3418,6 +3448,515 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$K$2:$K$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0313019999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0632220000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0942569999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1256589999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.157235</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1886549999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2199869999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2515599999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2838440000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.316865999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.348801999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.380361000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.411861999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.443265</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.474653</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.506008000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.537268000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.568518000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.599657000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.632162000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.663350000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.694714999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.726208</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.757518000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.788778000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.820212999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.851503999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.882809999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.913929</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.945253000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.976589000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.007868000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.039033000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.070974999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>67.570414999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$L$2:$L$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>2.1670000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.16100000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0279999999996902E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.08600000000025E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0709999999999301E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.13199999999957E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0020000000000502E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1620000000002102E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2780000000004398E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.13199999999957E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1300000000010698E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8940000000000599E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.03199999999981E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0720000000000699E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0609999999994201E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8049999999991599E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.7349999999989301E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0789999999983799E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2309999999983099E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0699999999997899E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.84499999999943E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1029999999981801E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1760000000021701E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1309999999985499E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.1090000000007999E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.98499999999768E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9939999999998201E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.1450000000022801E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.12700000000154E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.1470000000007798E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.1689999999985302E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.0179999999996299E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0290000000002801E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.9559999999998398E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31.470171999999899</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.0750000000049301E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF86-8549-9DE2-62B3B75A798C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1210989055"/>
+        <c:axId val="1211057471"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1210989055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1211057471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1211057471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1210989055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3539,6 +4078,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5642,6 +6221,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5788,6 +6883,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C36E84B-210E-5B4E-AB32-B4DAC4F07810}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{398D14E9-8AA5-024D-A220-0C9ADAF5658A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13939,7 +15075,7 @@
         <v>166097688</v>
       </c>
       <c r="L163" s="4">
-        <f t="shared" ref="L163:L194" si="5">K163/1000000</f>
+        <f t="shared" ref="L163:L178" si="5">K163/1000000</f>
         <v>166.09768800000001</v>
       </c>
       <c r="M163">
@@ -14682,8 +15818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD10502-8B96-EB40-9F7A-66733C76C911}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23267,4 +24403,1663 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAC7BDC-1327-FA4A-ADF0-3493373C0D18}">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6">
+        <v>41372</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6">
+        <v>80</v>
+      </c>
+      <c r="E2" s="6">
+        <v>14</v>
+      </c>
+      <c r="F2" s="6">
+        <v>12193</v>
+      </c>
+      <c r="G2" s="6">
+        <v>8</v>
+      </c>
+      <c r="H2" s="6">
+        <v>616</v>
+      </c>
+      <c r="I2" s="6">
+        <v>6</v>
+      </c>
+      <c r="J2" s="6">
+        <v>11577</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>2.1670000000000001E-3</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6">
+        <v>41374</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6">
+        <v>80</v>
+      </c>
+      <c r="E3" s="6">
+        <v>14</v>
+      </c>
+      <c r="F3" s="6">
+        <v>12193</v>
+      </c>
+      <c r="G3" s="6">
+        <v>8</v>
+      </c>
+      <c r="H3" s="6">
+        <v>616</v>
+      </c>
+      <c r="I3" s="6">
+        <v>6</v>
+      </c>
+      <c r="J3" s="6">
+        <v>11577</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1.0313019999999999</v>
+      </c>
+      <c r="L3" s="6">
+        <v>2.16100000000007E-3</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6">
+        <v>41376</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="6">
+        <v>80</v>
+      </c>
+      <c r="E4" s="6">
+        <v>16</v>
+      </c>
+      <c r="F4" s="6">
+        <v>12325</v>
+      </c>
+      <c r="G4" s="6">
+        <v>9</v>
+      </c>
+      <c r="H4" s="6">
+        <v>682</v>
+      </c>
+      <c r="I4" s="6">
+        <v>7</v>
+      </c>
+      <c r="J4" s="6">
+        <v>11643</v>
+      </c>
+      <c r="K4" s="6">
+        <v>2.0632220000000001</v>
+      </c>
+      <c r="L4" s="6">
+        <v>2.0279999999996902E-3</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6">
+        <v>41378</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6">
+        <v>80</v>
+      </c>
+      <c r="E5" s="6">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6">
+        <v>12061</v>
+      </c>
+      <c r="G5" s="6">
+        <v>7</v>
+      </c>
+      <c r="H5" s="6">
+        <v>550</v>
+      </c>
+      <c r="I5" s="6">
+        <v>5</v>
+      </c>
+      <c r="J5" s="6">
+        <v>11511</v>
+      </c>
+      <c r="K5" s="6">
+        <v>3.0942569999999998</v>
+      </c>
+      <c r="L5" s="6">
+        <v>2.08600000000025E-3</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6">
+        <v>41380</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6">
+        <v>80</v>
+      </c>
+      <c r="E6" s="6">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6">
+        <v>12193</v>
+      </c>
+      <c r="G6" s="6">
+        <v>8</v>
+      </c>
+      <c r="H6" s="6">
+        <v>616</v>
+      </c>
+      <c r="I6" s="6">
+        <v>6</v>
+      </c>
+      <c r="J6" s="6">
+        <v>11577</v>
+      </c>
+      <c r="K6" s="6">
+        <v>4.1256589999999997</v>
+      </c>
+      <c r="L6" s="6">
+        <v>2.0709999999999301E-3</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6">
+        <v>41382</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6">
+        <v>80</v>
+      </c>
+      <c r="E7" s="6">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6">
+        <v>12193</v>
+      </c>
+      <c r="G7" s="6">
+        <v>8</v>
+      </c>
+      <c r="H7" s="6">
+        <v>616</v>
+      </c>
+      <c r="I7" s="6">
+        <v>6</v>
+      </c>
+      <c r="J7" s="6">
+        <v>11577</v>
+      </c>
+      <c r="K7" s="6">
+        <v>5.157235</v>
+      </c>
+      <c r="L7" s="6">
+        <v>2.13199999999957E-3</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="6">
+        <v>41384</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6">
+        <v>80</v>
+      </c>
+      <c r="E8" s="6">
+        <v>14</v>
+      </c>
+      <c r="F8" s="6">
+        <v>12193</v>
+      </c>
+      <c r="G8" s="6">
+        <v>8</v>
+      </c>
+      <c r="H8" s="6">
+        <v>616</v>
+      </c>
+      <c r="I8" s="6">
+        <v>6</v>
+      </c>
+      <c r="J8" s="6">
+        <v>11577</v>
+      </c>
+      <c r="K8" s="6">
+        <v>6.1886549999999998</v>
+      </c>
+      <c r="L8" s="6">
+        <v>2.0020000000000502E-3</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6">
+        <v>41386</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6">
+        <v>80</v>
+      </c>
+      <c r="E9" s="6">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6">
+        <v>12061</v>
+      </c>
+      <c r="G9" s="6">
+        <v>7</v>
+      </c>
+      <c r="H9" s="6">
+        <v>550</v>
+      </c>
+      <c r="I9" s="6">
+        <v>5</v>
+      </c>
+      <c r="J9" s="6">
+        <v>11511</v>
+      </c>
+      <c r="K9" s="6">
+        <v>7.2199869999999997</v>
+      </c>
+      <c r="L9" s="6">
+        <v>2.1620000000002102E-3</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6">
+        <v>41388</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6">
+        <v>80</v>
+      </c>
+      <c r="E10" s="6">
+        <v>14</v>
+      </c>
+      <c r="F10" s="6">
+        <v>12193</v>
+      </c>
+      <c r="G10" s="6">
+        <v>8</v>
+      </c>
+      <c r="H10" s="6">
+        <v>616</v>
+      </c>
+      <c r="I10" s="6">
+        <v>6</v>
+      </c>
+      <c r="J10" s="6">
+        <v>11577</v>
+      </c>
+      <c r="K10" s="6">
+        <v>8.2515599999999996</v>
+      </c>
+      <c r="L10" s="6">
+        <v>2.2780000000004398E-3</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6">
+        <v>41390</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6">
+        <v>80</v>
+      </c>
+      <c r="E11" s="6">
+        <v>14</v>
+      </c>
+      <c r="F11" s="6">
+        <v>12193</v>
+      </c>
+      <c r="G11" s="6">
+        <v>8</v>
+      </c>
+      <c r="H11" s="6">
+        <v>616</v>
+      </c>
+      <c r="I11" s="6">
+        <v>6</v>
+      </c>
+      <c r="J11" s="6">
+        <v>11577</v>
+      </c>
+      <c r="K11" s="6">
+        <v>9.2838440000000002</v>
+      </c>
+      <c r="L11" s="6">
+        <v>2.13199999999957E-3</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="6">
+        <v>41392</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="6">
+        <v>80</v>
+      </c>
+      <c r="E12" s="6">
+        <v>14</v>
+      </c>
+      <c r="F12" s="6">
+        <v>12193</v>
+      </c>
+      <c r="G12" s="6">
+        <v>8</v>
+      </c>
+      <c r="H12" s="6">
+        <v>616</v>
+      </c>
+      <c r="I12" s="6">
+        <v>6</v>
+      </c>
+      <c r="J12" s="6">
+        <v>11577</v>
+      </c>
+      <c r="K12" s="6">
+        <v>10.316865999999999</v>
+      </c>
+      <c r="L12" s="6">
+        <v>2.1300000000010698E-3</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6">
+        <v>41394</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="6">
+        <v>80</v>
+      </c>
+      <c r="E13" s="6">
+        <v>14</v>
+      </c>
+      <c r="F13" s="6">
+        <v>12193</v>
+      </c>
+      <c r="G13" s="6">
+        <v>8</v>
+      </c>
+      <c r="H13" s="6">
+        <v>616</v>
+      </c>
+      <c r="I13" s="6">
+        <v>6</v>
+      </c>
+      <c r="J13" s="6">
+        <v>11577</v>
+      </c>
+      <c r="K13" s="6">
+        <v>11.348801999999999</v>
+      </c>
+      <c r="L13" s="6">
+        <v>1.8940000000000599E-3</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6">
+        <v>41396</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="6">
+        <v>80</v>
+      </c>
+      <c r="E14" s="6">
+        <v>12</v>
+      </c>
+      <c r="F14" s="6">
+        <v>12061</v>
+      </c>
+      <c r="G14" s="6">
+        <v>7</v>
+      </c>
+      <c r="H14" s="6">
+        <v>550</v>
+      </c>
+      <c r="I14" s="6">
+        <v>5</v>
+      </c>
+      <c r="J14" s="6">
+        <v>11511</v>
+      </c>
+      <c r="K14" s="6">
+        <v>12.380361000000001</v>
+      </c>
+      <c r="L14" s="6">
+        <v>2.03199999999981E-3</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6">
+        <v>41398</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="6">
+        <v>80</v>
+      </c>
+      <c r="E15" s="6">
+        <v>12</v>
+      </c>
+      <c r="F15" s="6">
+        <v>12061</v>
+      </c>
+      <c r="G15" s="6">
+        <v>7</v>
+      </c>
+      <c r="H15" s="6">
+        <v>550</v>
+      </c>
+      <c r="I15" s="6">
+        <v>5</v>
+      </c>
+      <c r="J15" s="6">
+        <v>11511</v>
+      </c>
+      <c r="K15" s="6">
+        <v>13.411861999999999</v>
+      </c>
+      <c r="L15" s="6">
+        <v>2.0720000000000699E-3</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="6">
+        <v>41400</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="6">
+        <v>80</v>
+      </c>
+      <c r="E16" s="6">
+        <v>12</v>
+      </c>
+      <c r="F16" s="6">
+        <v>12061</v>
+      </c>
+      <c r="G16" s="6">
+        <v>7</v>
+      </c>
+      <c r="H16" s="6">
+        <v>550</v>
+      </c>
+      <c r="I16" s="6">
+        <v>5</v>
+      </c>
+      <c r="J16" s="6">
+        <v>11511</v>
+      </c>
+      <c r="K16" s="6">
+        <v>14.443265</v>
+      </c>
+      <c r="L16" s="6">
+        <v>2.0609999999994201E-3</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="6">
+        <v>41402</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="6">
+        <v>80</v>
+      </c>
+      <c r="E17" s="6">
+        <v>14</v>
+      </c>
+      <c r="F17" s="6">
+        <v>12193</v>
+      </c>
+      <c r="G17" s="6">
+        <v>8</v>
+      </c>
+      <c r="H17" s="6">
+        <v>616</v>
+      </c>
+      <c r="I17" s="6">
+        <v>6</v>
+      </c>
+      <c r="J17" s="6">
+        <v>11577</v>
+      </c>
+      <c r="K17" s="6">
+        <v>15.474653</v>
+      </c>
+      <c r="L17" s="6">
+        <v>1.8049999999991599E-3</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="6">
+        <v>41404</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="6">
+        <v>80</v>
+      </c>
+      <c r="E18" s="6">
+        <v>14</v>
+      </c>
+      <c r="F18" s="6">
+        <v>12193</v>
+      </c>
+      <c r="G18" s="6">
+        <v>8</v>
+      </c>
+      <c r="H18" s="6">
+        <v>616</v>
+      </c>
+      <c r="I18" s="6">
+        <v>6</v>
+      </c>
+      <c r="J18" s="6">
+        <v>11577</v>
+      </c>
+      <c r="K18" s="6">
+        <v>16.506008000000001</v>
+      </c>
+      <c r="L18" s="6">
+        <v>3.7349999999989301E-3</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6">
+        <v>41406</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="6">
+        <v>80</v>
+      </c>
+      <c r="E19" s="6">
+        <v>14</v>
+      </c>
+      <c r="F19" s="6">
+        <v>12193</v>
+      </c>
+      <c r="G19" s="6">
+        <v>8</v>
+      </c>
+      <c r="H19" s="6">
+        <v>616</v>
+      </c>
+      <c r="I19" s="6">
+        <v>6</v>
+      </c>
+      <c r="J19" s="6">
+        <v>11577</v>
+      </c>
+      <c r="K19" s="6">
+        <v>17.537268000000001</v>
+      </c>
+      <c r="L19" s="6">
+        <v>2.0789999999983799E-3</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6">
+        <v>41408</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="6">
+        <v>80</v>
+      </c>
+      <c r="E20" s="6">
+        <v>14</v>
+      </c>
+      <c r="F20" s="6">
+        <v>12193</v>
+      </c>
+      <c r="G20" s="6">
+        <v>8</v>
+      </c>
+      <c r="H20" s="6">
+        <v>616</v>
+      </c>
+      <c r="I20" s="6">
+        <v>6</v>
+      </c>
+      <c r="J20" s="6">
+        <v>11577</v>
+      </c>
+      <c r="K20" s="6">
+        <v>18.568518000000001</v>
+      </c>
+      <c r="L20" s="6">
+        <v>2.2309999999983099E-3</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6">
+        <v>41410</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="6">
+        <v>80</v>
+      </c>
+      <c r="E21" s="6">
+        <v>14</v>
+      </c>
+      <c r="F21" s="6">
+        <v>12193</v>
+      </c>
+      <c r="G21" s="6">
+        <v>8</v>
+      </c>
+      <c r="H21" s="6">
+        <v>616</v>
+      </c>
+      <c r="I21" s="6">
+        <v>6</v>
+      </c>
+      <c r="J21" s="6">
+        <v>11577</v>
+      </c>
+      <c r="K21" s="6">
+        <v>19.599657000000001</v>
+      </c>
+      <c r="L21" s="6">
+        <v>2.0699999999997899E-3</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6">
+        <v>41412</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="6">
+        <v>80</v>
+      </c>
+      <c r="E22" s="6">
+        <v>12</v>
+      </c>
+      <c r="F22" s="6">
+        <v>12061</v>
+      </c>
+      <c r="G22" s="6">
+        <v>7</v>
+      </c>
+      <c r="H22" s="6">
+        <v>550</v>
+      </c>
+      <c r="I22" s="6">
+        <v>5</v>
+      </c>
+      <c r="J22" s="6">
+        <v>11511</v>
+      </c>
+      <c r="K22" s="6">
+        <v>20.632162000000001</v>
+      </c>
+      <c r="L22" s="6">
+        <v>1.84499999999943E-3</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="6">
+        <v>41414</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="6">
+        <v>80</v>
+      </c>
+      <c r="E23" s="6">
+        <v>12</v>
+      </c>
+      <c r="F23" s="6">
+        <v>12061</v>
+      </c>
+      <c r="G23" s="6">
+        <v>7</v>
+      </c>
+      <c r="H23" s="6">
+        <v>550</v>
+      </c>
+      <c r="I23" s="6">
+        <v>5</v>
+      </c>
+      <c r="J23" s="6">
+        <v>11511</v>
+      </c>
+      <c r="K23" s="6">
+        <v>21.663350000000001</v>
+      </c>
+      <c r="L23" s="6">
+        <v>2.1029999999981801E-3</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="6">
+        <v>41416</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="6">
+        <v>80</v>
+      </c>
+      <c r="E24" s="6">
+        <v>12</v>
+      </c>
+      <c r="F24" s="6">
+        <v>12061</v>
+      </c>
+      <c r="G24" s="6">
+        <v>7</v>
+      </c>
+      <c r="H24" s="6">
+        <v>550</v>
+      </c>
+      <c r="I24" s="6">
+        <v>5</v>
+      </c>
+      <c r="J24" s="6">
+        <v>11511</v>
+      </c>
+      <c r="K24" s="6">
+        <v>22.694714999999999</v>
+      </c>
+      <c r="L24" s="6">
+        <v>2.1760000000021701E-3</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="6">
+        <v>41418</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="6">
+        <v>80</v>
+      </c>
+      <c r="E25" s="6">
+        <v>12</v>
+      </c>
+      <c r="F25" s="6">
+        <v>12061</v>
+      </c>
+      <c r="G25" s="6">
+        <v>7</v>
+      </c>
+      <c r="H25" s="6">
+        <v>550</v>
+      </c>
+      <c r="I25" s="6">
+        <v>5</v>
+      </c>
+      <c r="J25" s="6">
+        <v>11511</v>
+      </c>
+      <c r="K25" s="6">
+        <v>23.726208</v>
+      </c>
+      <c r="L25" s="6">
+        <v>2.1309999999985499E-3</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="6">
+        <v>41420</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="6">
+        <v>80</v>
+      </c>
+      <c r="E26" s="6">
+        <v>14</v>
+      </c>
+      <c r="F26" s="6">
+        <v>12193</v>
+      </c>
+      <c r="G26" s="6">
+        <v>8</v>
+      </c>
+      <c r="H26" s="6">
+        <v>616</v>
+      </c>
+      <c r="I26" s="6">
+        <v>6</v>
+      </c>
+      <c r="J26" s="6">
+        <v>11577</v>
+      </c>
+      <c r="K26" s="6">
+        <v>24.757518000000001</v>
+      </c>
+      <c r="L26" s="6">
+        <v>2.1090000000007999E-3</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="6">
+        <v>41422</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="6">
+        <v>80</v>
+      </c>
+      <c r="E27" s="6">
+        <v>14</v>
+      </c>
+      <c r="F27" s="6">
+        <v>12193</v>
+      </c>
+      <c r="G27" s="6">
+        <v>8</v>
+      </c>
+      <c r="H27" s="6">
+        <v>616</v>
+      </c>
+      <c r="I27" s="6">
+        <v>6</v>
+      </c>
+      <c r="J27" s="6">
+        <v>11577</v>
+      </c>
+      <c r="K27" s="6">
+        <v>25.788778000000001</v>
+      </c>
+      <c r="L27" s="6">
+        <v>1.98499999999768E-3</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0</v>
+      </c>
+      <c r="N27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="6">
+        <v>41424</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="6">
+        <v>80</v>
+      </c>
+      <c r="E28" s="6">
+        <v>14</v>
+      </c>
+      <c r="F28" s="6">
+        <v>12193</v>
+      </c>
+      <c r="G28" s="6">
+        <v>8</v>
+      </c>
+      <c r="H28" s="6">
+        <v>616</v>
+      </c>
+      <c r="I28" s="6">
+        <v>6</v>
+      </c>
+      <c r="J28" s="6">
+        <v>11577</v>
+      </c>
+      <c r="K28" s="6">
+        <v>26.820212999999999</v>
+      </c>
+      <c r="L28" s="6">
+        <v>1.9939999999998201E-3</v>
+      </c>
+      <c r="M28" s="6">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="6">
+        <v>41426</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="6">
+        <v>80</v>
+      </c>
+      <c r="E29" s="6">
+        <v>12</v>
+      </c>
+      <c r="F29" s="6">
+        <v>12061</v>
+      </c>
+      <c r="G29" s="6">
+        <v>7</v>
+      </c>
+      <c r="H29" s="6">
+        <v>550</v>
+      </c>
+      <c r="I29" s="6">
+        <v>5</v>
+      </c>
+      <c r="J29" s="6">
+        <v>11511</v>
+      </c>
+      <c r="K29" s="6">
+        <v>27.851503999999998</v>
+      </c>
+      <c r="L29" s="6">
+        <v>2.1450000000022801E-3</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0</v>
+      </c>
+      <c r="N29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="6">
+        <v>41428</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="6">
+        <v>80</v>
+      </c>
+      <c r="E30" s="6">
+        <v>12</v>
+      </c>
+      <c r="F30" s="6">
+        <v>12061</v>
+      </c>
+      <c r="G30" s="6">
+        <v>7</v>
+      </c>
+      <c r="H30" s="6">
+        <v>550</v>
+      </c>
+      <c r="I30" s="6">
+        <v>5</v>
+      </c>
+      <c r="J30" s="6">
+        <v>11511</v>
+      </c>
+      <c r="K30" s="6">
+        <v>28.882809999999999</v>
+      </c>
+      <c r="L30" s="6">
+        <v>2.12700000000154E-3</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="6">
+        <v>41430</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="6">
+        <v>80</v>
+      </c>
+      <c r="E31" s="6">
+        <v>14</v>
+      </c>
+      <c r="F31" s="6">
+        <v>12193</v>
+      </c>
+      <c r="G31" s="6">
+        <v>8</v>
+      </c>
+      <c r="H31" s="6">
+        <v>616</v>
+      </c>
+      <c r="I31" s="6">
+        <v>6</v>
+      </c>
+      <c r="J31" s="6">
+        <v>11577</v>
+      </c>
+      <c r="K31" s="6">
+        <v>29.913929</v>
+      </c>
+      <c r="L31" s="6">
+        <v>2.1470000000007798E-3</v>
+      </c>
+      <c r="M31" s="6">
+        <v>0</v>
+      </c>
+      <c r="N31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="6">
+        <v>41432</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="6">
+        <v>80</v>
+      </c>
+      <c r="E32" s="6">
+        <v>12</v>
+      </c>
+      <c r="F32" s="6">
+        <v>12061</v>
+      </c>
+      <c r="G32" s="6">
+        <v>7</v>
+      </c>
+      <c r="H32" s="6">
+        <v>550</v>
+      </c>
+      <c r="I32" s="6">
+        <v>5</v>
+      </c>
+      <c r="J32" s="6">
+        <v>11511</v>
+      </c>
+      <c r="K32" s="6">
+        <v>30.945253000000001</v>
+      </c>
+      <c r="L32" s="6">
+        <v>2.1689999999985302E-3</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="6">
+        <v>41434</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="6">
+        <v>80</v>
+      </c>
+      <c r="E33" s="6">
+        <v>12</v>
+      </c>
+      <c r="F33" s="6">
+        <v>12061</v>
+      </c>
+      <c r="G33" s="6">
+        <v>7</v>
+      </c>
+      <c r="H33" s="6">
+        <v>550</v>
+      </c>
+      <c r="I33" s="6">
+        <v>5</v>
+      </c>
+      <c r="J33" s="6">
+        <v>11511</v>
+      </c>
+      <c r="K33" s="6">
+        <v>31.976589000000001</v>
+      </c>
+      <c r="L33" s="6">
+        <v>2.0179999999996299E-3</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0</v>
+      </c>
+      <c r="N33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="6">
+        <v>41436</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="6">
+        <v>80</v>
+      </c>
+      <c r="E34" s="6">
+        <v>14</v>
+      </c>
+      <c r="F34" s="6">
+        <v>12193</v>
+      </c>
+      <c r="G34" s="6">
+        <v>8</v>
+      </c>
+      <c r="H34" s="6">
+        <v>616</v>
+      </c>
+      <c r="I34" s="6">
+        <v>6</v>
+      </c>
+      <c r="J34" s="6">
+        <v>11577</v>
+      </c>
+      <c r="K34" s="6">
+        <v>33.007868000000002</v>
+      </c>
+      <c r="L34" s="6">
+        <v>2.0290000000002801E-3</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0</v>
+      </c>
+      <c r="N34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="6">
+        <v>41438</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="6">
+        <v>80</v>
+      </c>
+      <c r="E35" s="6">
+        <v>14</v>
+      </c>
+      <c r="F35" s="6">
+        <v>12193</v>
+      </c>
+      <c r="G35" s="6">
+        <v>8</v>
+      </c>
+      <c r="H35" s="6">
+        <v>616</v>
+      </c>
+      <c r="I35" s="6">
+        <v>6</v>
+      </c>
+      <c r="J35" s="6">
+        <v>11577</v>
+      </c>
+      <c r="K35" s="6">
+        <v>34.039033000000003</v>
+      </c>
+      <c r="L35" s="6">
+        <v>1.9559999999998398E-3</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0</v>
+      </c>
+      <c r="N35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="6">
+        <v>41440</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="6">
+        <v>80</v>
+      </c>
+      <c r="E36" s="6">
+        <v>19</v>
+      </c>
+      <c r="F36" s="6">
+        <v>12563</v>
+      </c>
+      <c r="G36" s="6">
+        <v>13</v>
+      </c>
+      <c r="H36" s="6">
+        <v>986</v>
+      </c>
+      <c r="I36" s="6">
+        <v>6</v>
+      </c>
+      <c r="J36" s="6">
+        <v>11577</v>
+      </c>
+      <c r="K36" s="6">
+        <v>35.070974999999997</v>
+      </c>
+      <c r="L36" s="6">
+        <v>31.470171999999899</v>
+      </c>
+      <c r="M36" s="6">
+        <v>250.65004411161101</v>
+      </c>
+      <c r="N36" s="6">
+        <v>2942.9772420690902</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="6">
+        <v>41442</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="6">
+        <v>80</v>
+      </c>
+      <c r="E37" s="6">
+        <v>14</v>
+      </c>
+      <c r="F37" s="6">
+        <v>12193</v>
+      </c>
+      <c r="G37" s="6">
+        <v>8</v>
+      </c>
+      <c r="H37" s="6">
+        <v>616</v>
+      </c>
+      <c r="I37" s="6">
+        <v>6</v>
+      </c>
+      <c r="J37" s="6">
+        <v>11577</v>
+      </c>
+      <c r="K37" s="6">
+        <v>67.570414999999997</v>
+      </c>
+      <c r="L37" s="6">
+        <v>2.0750000000049301E-3</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE29D839-9800-A042-8FCC-941276E6C94F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/05-synflood/graphs.xlsx
+++ b/05-synflood/graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b670a29c0a991bc2/Codice/github/unitn-m-ot/05-synflood/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{FDD40AFC-745F-0B46-AE92-9F593E38170B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{358887B0-EEA3-3B4F-93D5-305ADE43981B}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{FDD40AFC-745F-0B46-AE92-9F593E38170B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7806514-3911-9442-A533-C83A18DCAB29}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14380" activeTab="5" xr2:uid="{0F94186E-9E54-6D4F-815C-D7D5A8E68F8F}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="25600" windowHeight="14380" activeTab="5" xr2:uid="{0F94186E-9E54-6D4F-815C-D7D5A8E68F8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Cookies" sheetId="4" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <sheet name="Foglio2" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Foglio1!$K$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Foglio1!$K$2:$K$37</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Foglio1!$L$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Foglio1!$L$2:$L$37</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Foglio1!$K$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Foglio1!$K$2:$K$37</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Foglio1!$L$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Foglio1!$L$2:$L$37</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Foglio2!$K$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Foglio2!$K$2:$K$95</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Foglio2!$L$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Foglio2!$L$2:$L$95</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Foglio2!$K$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Foglio2!$K$2:$K$95</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Foglio2!$L$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Foglio2!$L$2:$L$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="20">
   <si>
     <t>Address A</t>
   </si>
@@ -119,7 +119,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0000000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +136,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Fira Code Light"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -166,6 +171,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -3957,6 +3964,857 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio2!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio2!$K$2:$K$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="94"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0313330000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0624630000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.094017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1254</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1567439999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1896190000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.221857</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2538099999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2855220000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.316978000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.348307</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.379478000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.410942</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.442202999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.473442</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.504415999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.532083</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.563575</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.595148999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.626223</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.657630999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.688818999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.720051999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.751377000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.782468999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.813831</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.845065999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.876404999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.907765999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.939160999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.970457</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.001711</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.033064000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.064418000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.095564000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.126969000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.158301000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.189712999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.220897999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.252155999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.283675000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.315035999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.346401</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.377814999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.408847999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.440010000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.471344999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.502611000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.533852000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51.564884999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52.595927000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53.627135000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54.658164999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55.689368999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56.720647999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57.751894</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58.783279999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59.815962999999897</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60.847085</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61.878507999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62.909630999999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63.940914999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64.972219999999993</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>66.003583000000006</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>67.034700999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>68.065961999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>69.097489999999993</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>70.128950000000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71.160426999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>72.191920999999994</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>73.223269999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>74.254547000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>75.285702999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>76.316963999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>77.348371</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>78.379726000000005</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>79.410966000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>80.442223999999996</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>81.473607999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>82.504966999999994</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>83.536441999999994</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>84.571763000000004</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>85.603962999999993</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>86.635639999999995</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>87.667062000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>88.698320999999893</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>89.729787000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>90.761145999999997</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>91.792276000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>92.823576000000003</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>93.854906999999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>94.886381</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio2!$L$2:$L$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="94"/>
+                <c:pt idx="0">
+                  <c:v>2.0400000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0639999999998398E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9679999999997399E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1589999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0709999999999301E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.42500000000056E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1109999999993001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.08999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.18399999999974E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.11700000000014E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0980000000001501E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0150000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0889999999997798E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0659999999992299E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0990000000011798E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9580000000001198E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9770000000001102E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3149999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1599999999999302E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1340000000016298E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1510000000013402E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1370000000011601E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1420000000027502E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1039999999992098E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9719999999985301E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1240000000020101E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2599999999997002E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.1659999999989999E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.12300000000098E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.1560000000029299E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.1050000000002399E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.0530000000000799E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0439999999979299E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.2869999999954801E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0409999999984E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.9209999999958401E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.0139999999955098E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.9739999999970302E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.0110000000030902E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.96600000000302E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.1529999999998399E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.0769999999998802E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.8560000000036299E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.04000000000093E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.9220000000004199E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.98300000000273E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.0129999999980398E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.7690000000030099E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.9519999999957299E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.27100000000035E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.0170000000021499E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.9199999999983601E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.95499999999526E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.8710000000012801E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.1109999999993001E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.0280000000028001E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.12899999999649E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.8820000000019301E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.9410000000021901E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.0150000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.9870000000068401E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.06200000000222E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.9670000000004901E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.90600000000529E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.9899999999921599E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.1190000000075298E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.14900000000284E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.1690000000091901E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.0480000000020399E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.9099999999951901E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.01400000000262E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.0619999999951198E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8740000000008099E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.1169999999983702E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.9479999999987201E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.1370000000047098E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.0279999999956999E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.03100000000233E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.0180000000067301E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.0820000000014698E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.1140000000059401E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.87999999999988E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.8439999999912901E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.0460000000070899E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.0610000000118498E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1330000000006001E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.07000000000334E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1959999999978598E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.87700000000745E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.84099999999887E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.0399999999938202E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.1050000000002399E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.9690000000025499E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4979-A44B-8CC9-84C0103B53FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1562075952"/>
+        <c:axId val="1562164880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1562075952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1562164880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1562164880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1562075952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4118,6 +4976,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6737,6 +7635,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6924,6 +8338,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{398D14E9-8AA5-024D-A220-0C9ADAF5658A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5D0DEE4-8317-DD49-9AC2-27BB28C85BA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26054,12 +27509,4158 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE29D839-9800-A042-8FCC-941276E6C94F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="8">
+        <v>41556</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="8">
+        <v>80</v>
+      </c>
+      <c r="E2" s="8">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G2" s="8">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8">
+        <v>550</v>
+      </c>
+      <c r="I2" s="8">
+        <v>5</v>
+      </c>
+      <c r="J2" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0</v>
+      </c>
+      <c r="L2" s="8">
+        <v>2.0400000000000001E-3</v>
+      </c>
+      <c r="M2" s="8">
+        <v>0</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="8">
+        <v>41558</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8">
+        <v>80</v>
+      </c>
+      <c r="E3" s="8">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G3" s="8">
+        <v>8</v>
+      </c>
+      <c r="H3" s="8">
+        <v>616</v>
+      </c>
+      <c r="I3" s="8">
+        <v>6</v>
+      </c>
+      <c r="J3" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K3" s="8">
+        <v>1.0313330000000001</v>
+      </c>
+      <c r="L3" s="8">
+        <v>2.0639999999998398E-3</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="8">
+        <v>41560</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8">
+        <v>80</v>
+      </c>
+      <c r="E4" s="8">
+        <v>14</v>
+      </c>
+      <c r="F4" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G4" s="8">
+        <v>8</v>
+      </c>
+      <c r="H4" s="8">
+        <v>616</v>
+      </c>
+      <c r="I4" s="8">
+        <v>6</v>
+      </c>
+      <c r="J4" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K4" s="8">
+        <v>2.0624630000000002</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1.9679999999997399E-3</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="8">
+        <v>41562</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8">
+        <v>80</v>
+      </c>
+      <c r="E5" s="8">
+        <v>14</v>
+      </c>
+      <c r="F5" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G5" s="8">
+        <v>8</v>
+      </c>
+      <c r="H5" s="8">
+        <v>616</v>
+      </c>
+      <c r="I5" s="8">
+        <v>6</v>
+      </c>
+      <c r="J5" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K5" s="8">
+        <v>3.094017</v>
+      </c>
+      <c r="L5" s="8">
+        <v>2.1589999999998E-3</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8">
+        <v>41564</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8">
+        <v>80</v>
+      </c>
+      <c r="E6" s="8">
+        <v>14</v>
+      </c>
+      <c r="F6" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G6" s="8">
+        <v>8</v>
+      </c>
+      <c r="H6" s="8">
+        <v>616</v>
+      </c>
+      <c r="I6" s="8">
+        <v>6</v>
+      </c>
+      <c r="J6" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K6" s="8">
+        <v>4.1254</v>
+      </c>
+      <c r="L6" s="8">
+        <v>2.0709999999999301E-3</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="8">
+        <v>41566</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8">
+        <v>80</v>
+      </c>
+      <c r="E7" s="8">
+        <v>14</v>
+      </c>
+      <c r="F7" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G7" s="8">
+        <v>8</v>
+      </c>
+      <c r="H7" s="8">
+        <v>616</v>
+      </c>
+      <c r="I7" s="8">
+        <v>6</v>
+      </c>
+      <c r="J7" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K7" s="8">
+        <v>5.1567439999999998</v>
+      </c>
+      <c r="L7" s="8">
+        <v>2.42500000000056E-3</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8">
+        <v>41568</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8">
+        <v>80</v>
+      </c>
+      <c r="E8" s="8">
+        <v>14</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G8" s="8">
+        <v>8</v>
+      </c>
+      <c r="H8" s="8">
+        <v>616</v>
+      </c>
+      <c r="I8" s="8">
+        <v>6</v>
+      </c>
+      <c r="J8" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K8" s="8">
+        <v>6.1896190000000004</v>
+      </c>
+      <c r="L8" s="8">
+        <v>2.1109999999993001E-3</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="8">
+        <v>41570</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8">
+        <v>80</v>
+      </c>
+      <c r="E9" s="8">
+        <v>14</v>
+      </c>
+      <c r="F9" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G9" s="8">
+        <v>8</v>
+      </c>
+      <c r="H9" s="8">
+        <v>616</v>
+      </c>
+      <c r="I9" s="8">
+        <v>6</v>
+      </c>
+      <c r="J9" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K9" s="8">
+        <v>7.221857</v>
+      </c>
+      <c r="L9" s="8">
+        <v>2.08999999999992E-3</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8">
+        <v>41572</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8">
+        <v>80</v>
+      </c>
+      <c r="E10" s="8">
+        <v>16</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12325</v>
+      </c>
+      <c r="G10" s="8">
+        <v>9</v>
+      </c>
+      <c r="H10" s="8">
+        <v>682</v>
+      </c>
+      <c r="I10" s="8">
+        <v>7</v>
+      </c>
+      <c r="J10" s="8">
+        <v>11643</v>
+      </c>
+      <c r="K10" s="8">
+        <v>8.2538099999999996</v>
+      </c>
+      <c r="L10" s="8">
+        <v>2.18399999999974E-3</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8">
+        <v>41574</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="8">
+        <v>80</v>
+      </c>
+      <c r="E11" s="8">
+        <v>12</v>
+      </c>
+      <c r="F11" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G11" s="8">
+        <v>7</v>
+      </c>
+      <c r="H11" s="8">
+        <v>550</v>
+      </c>
+      <c r="I11" s="8">
+        <v>5</v>
+      </c>
+      <c r="J11" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K11" s="8">
+        <v>9.2855220000000003</v>
+      </c>
+      <c r="L11" s="8">
+        <v>2.11700000000014E-3</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8">
+        <v>41576</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="8">
+        <v>80</v>
+      </c>
+      <c r="E12" s="8">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G12" s="8">
+        <v>7</v>
+      </c>
+      <c r="H12" s="8">
+        <v>550</v>
+      </c>
+      <c r="I12" s="8">
+        <v>5</v>
+      </c>
+      <c r="J12" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K12" s="8">
+        <v>10.316978000000001</v>
+      </c>
+      <c r="L12" s="8">
+        <v>2.0980000000001501E-3</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="8">
+        <v>41578</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="8">
+        <v>80</v>
+      </c>
+      <c r="E13" s="8">
+        <v>14</v>
+      </c>
+      <c r="F13" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G13" s="8">
+        <v>8</v>
+      </c>
+      <c r="H13" s="8">
+        <v>616</v>
+      </c>
+      <c r="I13" s="8">
+        <v>6</v>
+      </c>
+      <c r="J13" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K13" s="8">
+        <v>11.348307</v>
+      </c>
+      <c r="L13" s="8">
+        <v>2.0150000000001E-3</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="8">
+        <v>41580</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="8">
+        <v>80</v>
+      </c>
+      <c r="E14" s="8">
+        <v>12</v>
+      </c>
+      <c r="F14" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G14" s="8">
+        <v>7</v>
+      </c>
+      <c r="H14" s="8">
+        <v>550</v>
+      </c>
+      <c r="I14" s="8">
+        <v>5</v>
+      </c>
+      <c r="J14" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K14" s="8">
+        <v>12.379478000000001</v>
+      </c>
+      <c r="L14" s="8">
+        <v>2.0889999999997798E-3</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="8">
+        <v>41582</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="8">
+        <v>80</v>
+      </c>
+      <c r="E15" s="8">
+        <v>14</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G15" s="8">
+        <v>8</v>
+      </c>
+      <c r="H15" s="8">
+        <v>616</v>
+      </c>
+      <c r="I15" s="8">
+        <v>6</v>
+      </c>
+      <c r="J15" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K15" s="8">
+        <v>13.410942</v>
+      </c>
+      <c r="L15" s="8">
+        <v>2.0659999999992299E-3</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="8">
+        <v>41584</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="8">
+        <v>80</v>
+      </c>
+      <c r="E16" s="8">
+        <v>14</v>
+      </c>
+      <c r="F16" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G16" s="8">
+        <v>8</v>
+      </c>
+      <c r="H16" s="8">
+        <v>616</v>
+      </c>
+      <c r="I16" s="8">
+        <v>6</v>
+      </c>
+      <c r="J16" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K16" s="8">
+        <v>14.442202999999999</v>
+      </c>
+      <c r="L16" s="8">
+        <v>2.0990000000011798E-3</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="8">
+        <v>41586</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="8">
+        <v>80</v>
+      </c>
+      <c r="E17" s="8">
+        <v>14</v>
+      </c>
+      <c r="F17" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G17" s="8">
+        <v>8</v>
+      </c>
+      <c r="H17" s="8">
+        <v>616</v>
+      </c>
+      <c r="I17" s="8">
+        <v>6</v>
+      </c>
+      <c r="J17" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K17" s="8">
+        <v>15.473442</v>
+      </c>
+      <c r="L17" s="8">
+        <v>1.9580000000001198E-3</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="8">
+        <v>41588</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="8">
+        <v>80</v>
+      </c>
+      <c r="E18" s="8">
+        <v>14</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G18" s="8">
+        <v>8</v>
+      </c>
+      <c r="H18" s="8">
+        <v>616</v>
+      </c>
+      <c r="I18" s="8">
+        <v>6</v>
+      </c>
+      <c r="J18" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K18" s="8">
+        <v>16.504415999999999</v>
+      </c>
+      <c r="L18" s="8">
+        <v>1.9770000000001102E-3</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8">
+        <v>41590</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="8">
+        <v>80</v>
+      </c>
+      <c r="E19" s="8">
+        <v>12</v>
+      </c>
+      <c r="F19" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G19" s="8">
+        <v>7</v>
+      </c>
+      <c r="H19" s="8">
+        <v>550</v>
+      </c>
+      <c r="I19" s="8">
+        <v>5</v>
+      </c>
+      <c r="J19" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K19" s="8">
+        <v>17.532083</v>
+      </c>
+      <c r="L19" s="8">
+        <v>2.3149999999994E-3</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8">
+        <v>41592</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="8">
+        <v>80</v>
+      </c>
+      <c r="E20" s="8">
+        <v>12</v>
+      </c>
+      <c r="F20" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G20" s="8">
+        <v>7</v>
+      </c>
+      <c r="H20" s="8">
+        <v>550</v>
+      </c>
+      <c r="I20" s="8">
+        <v>5</v>
+      </c>
+      <c r="J20" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K20" s="8">
+        <v>18.563575</v>
+      </c>
+      <c r="L20" s="8">
+        <v>2.1599999999999302E-3</v>
+      </c>
+      <c r="M20" s="8">
+        <v>0</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="8">
+        <v>41594</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="8">
+        <v>80</v>
+      </c>
+      <c r="E21" s="8">
+        <v>12</v>
+      </c>
+      <c r="F21" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G21" s="8">
+        <v>7</v>
+      </c>
+      <c r="H21" s="8">
+        <v>550</v>
+      </c>
+      <c r="I21" s="8">
+        <v>5</v>
+      </c>
+      <c r="J21" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K21" s="8">
+        <v>19.595148999999999</v>
+      </c>
+      <c r="L21" s="8">
+        <v>2.1340000000016298E-3</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="8">
+        <v>41596</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="8">
+        <v>80</v>
+      </c>
+      <c r="E22" s="8">
+        <v>12</v>
+      </c>
+      <c r="F22" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G22" s="8">
+        <v>7</v>
+      </c>
+      <c r="H22" s="8">
+        <v>550</v>
+      </c>
+      <c r="I22" s="8">
+        <v>5</v>
+      </c>
+      <c r="J22" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K22" s="8">
+        <v>20.626223</v>
+      </c>
+      <c r="L22" s="8">
+        <v>2.1510000000013402E-3</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="8">
+        <v>41598</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="8">
+        <v>80</v>
+      </c>
+      <c r="E23" s="8">
+        <v>12</v>
+      </c>
+      <c r="F23" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G23" s="8">
+        <v>7</v>
+      </c>
+      <c r="H23" s="8">
+        <v>550</v>
+      </c>
+      <c r="I23" s="8">
+        <v>5</v>
+      </c>
+      <c r="J23" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K23" s="8">
+        <v>21.657630999999999</v>
+      </c>
+      <c r="L23" s="8">
+        <v>2.1370000000011601E-3</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="8">
+        <v>41600</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="8">
+        <v>80</v>
+      </c>
+      <c r="E24" s="8">
+        <v>12</v>
+      </c>
+      <c r="F24" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G24" s="8">
+        <v>7</v>
+      </c>
+      <c r="H24" s="8">
+        <v>550</v>
+      </c>
+      <c r="I24" s="8">
+        <v>5</v>
+      </c>
+      <c r="J24" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K24" s="8">
+        <v>22.688818999999999</v>
+      </c>
+      <c r="L24" s="8">
+        <v>2.1420000000027502E-3</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="8">
+        <v>41602</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="8">
+        <v>80</v>
+      </c>
+      <c r="E25" s="8">
+        <v>14</v>
+      </c>
+      <c r="F25" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G25" s="8">
+        <v>8</v>
+      </c>
+      <c r="H25" s="8">
+        <v>616</v>
+      </c>
+      <c r="I25" s="8">
+        <v>6</v>
+      </c>
+      <c r="J25" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K25" s="8">
+        <v>23.720051999999999</v>
+      </c>
+      <c r="L25" s="8">
+        <v>2.1039999999992098E-3</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0</v>
+      </c>
+      <c r="N25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="8">
+        <v>41604</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="8">
+        <v>80</v>
+      </c>
+      <c r="E26" s="8">
+        <v>14</v>
+      </c>
+      <c r="F26" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G26" s="8">
+        <v>8</v>
+      </c>
+      <c r="H26" s="8">
+        <v>616</v>
+      </c>
+      <c r="I26" s="8">
+        <v>6</v>
+      </c>
+      <c r="J26" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K26" s="8">
+        <v>24.751377000000002</v>
+      </c>
+      <c r="L26" s="8">
+        <v>1.9719999999985301E-3</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0</v>
+      </c>
+      <c r="N26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="8">
+        <v>41606</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="8">
+        <v>80</v>
+      </c>
+      <c r="E27" s="8">
+        <v>14</v>
+      </c>
+      <c r="F27" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G27" s="8">
+        <v>8</v>
+      </c>
+      <c r="H27" s="8">
+        <v>616</v>
+      </c>
+      <c r="I27" s="8">
+        <v>6</v>
+      </c>
+      <c r="J27" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K27" s="8">
+        <v>25.782468999999999</v>
+      </c>
+      <c r="L27" s="8">
+        <v>2.1240000000020101E-3</v>
+      </c>
+      <c r="M27" s="8">
+        <v>0</v>
+      </c>
+      <c r="N27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="8">
+        <v>41608</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="8">
+        <v>80</v>
+      </c>
+      <c r="E28" s="8">
+        <v>14</v>
+      </c>
+      <c r="F28" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G28" s="8">
+        <v>8</v>
+      </c>
+      <c r="H28" s="8">
+        <v>616</v>
+      </c>
+      <c r="I28" s="8">
+        <v>6</v>
+      </c>
+      <c r="J28" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K28" s="8">
+        <v>26.813831</v>
+      </c>
+      <c r="L28" s="8">
+        <v>2.2599999999997002E-3</v>
+      </c>
+      <c r="M28" s="8">
+        <v>0</v>
+      </c>
+      <c r="N28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="8">
+        <v>41610</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="8">
+        <v>80</v>
+      </c>
+      <c r="E29" s="8">
+        <v>12</v>
+      </c>
+      <c r="F29" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G29" s="8">
+        <v>7</v>
+      </c>
+      <c r="H29" s="8">
+        <v>550</v>
+      </c>
+      <c r="I29" s="8">
+        <v>5</v>
+      </c>
+      <c r="J29" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K29" s="8">
+        <v>27.845065999999999</v>
+      </c>
+      <c r="L29" s="8">
+        <v>2.1659999999989999E-3</v>
+      </c>
+      <c r="M29" s="8">
+        <v>0</v>
+      </c>
+      <c r="N29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="8">
+        <v>41612</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="8">
+        <v>80</v>
+      </c>
+      <c r="E30" s="8">
+        <v>12</v>
+      </c>
+      <c r="F30" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G30" s="8">
+        <v>7</v>
+      </c>
+      <c r="H30" s="8">
+        <v>550</v>
+      </c>
+      <c r="I30" s="8">
+        <v>5</v>
+      </c>
+      <c r="J30" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K30" s="8">
+        <v>28.876404999999998</v>
+      </c>
+      <c r="L30" s="8">
+        <v>2.12300000000098E-3</v>
+      </c>
+      <c r="M30" s="8">
+        <v>0</v>
+      </c>
+      <c r="N30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="8">
+        <v>41614</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="8">
+        <v>80</v>
+      </c>
+      <c r="E31" s="8">
+        <v>12</v>
+      </c>
+      <c r="F31" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G31" s="8">
+        <v>7</v>
+      </c>
+      <c r="H31" s="8">
+        <v>550</v>
+      </c>
+      <c r="I31" s="8">
+        <v>5</v>
+      </c>
+      <c r="J31" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K31" s="8">
+        <v>29.907765999999999</v>
+      </c>
+      <c r="L31" s="8">
+        <v>2.1560000000029299E-3</v>
+      </c>
+      <c r="M31" s="8">
+        <v>0</v>
+      </c>
+      <c r="N31" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="8">
+        <v>41616</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="8">
+        <v>80</v>
+      </c>
+      <c r="E32" s="8">
+        <v>14</v>
+      </c>
+      <c r="F32" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G32" s="8">
+        <v>8</v>
+      </c>
+      <c r="H32" s="8">
+        <v>616</v>
+      </c>
+      <c r="I32" s="8">
+        <v>6</v>
+      </c>
+      <c r="J32" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K32" s="8">
+        <v>30.939160999999999</v>
+      </c>
+      <c r="L32" s="8">
+        <v>2.1050000000002399E-3</v>
+      </c>
+      <c r="M32" s="8">
+        <v>0</v>
+      </c>
+      <c r="N32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="8">
+        <v>41618</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="8">
+        <v>80</v>
+      </c>
+      <c r="E33" s="8">
+        <v>12</v>
+      </c>
+      <c r="F33" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G33" s="8">
+        <v>7</v>
+      </c>
+      <c r="H33" s="8">
+        <v>550</v>
+      </c>
+      <c r="I33" s="8">
+        <v>5</v>
+      </c>
+      <c r="J33" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K33" s="8">
+        <v>31.970457</v>
+      </c>
+      <c r="L33" s="8">
+        <v>2.0530000000000799E-3</v>
+      </c>
+      <c r="M33" s="8">
+        <v>0</v>
+      </c>
+      <c r="N33" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="8">
+        <v>41620</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="8">
+        <v>80</v>
+      </c>
+      <c r="E34" s="8">
+        <v>14</v>
+      </c>
+      <c r="F34" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G34" s="8">
+        <v>8</v>
+      </c>
+      <c r="H34" s="8">
+        <v>616</v>
+      </c>
+      <c r="I34" s="8">
+        <v>6</v>
+      </c>
+      <c r="J34" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K34" s="8">
+        <v>33.001711</v>
+      </c>
+      <c r="L34" s="8">
+        <v>2.0439999999979299E-3</v>
+      </c>
+      <c r="M34" s="8">
+        <v>0</v>
+      </c>
+      <c r="N34" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="8">
+        <v>41622</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="8">
+        <v>80</v>
+      </c>
+      <c r="E35" s="8">
+        <v>14</v>
+      </c>
+      <c r="F35" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G35" s="8">
+        <v>8</v>
+      </c>
+      <c r="H35" s="8">
+        <v>616</v>
+      </c>
+      <c r="I35" s="8">
+        <v>6</v>
+      </c>
+      <c r="J35" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K35" s="8">
+        <v>34.033064000000003</v>
+      </c>
+      <c r="L35" s="8">
+        <v>2.2869999999954801E-3</v>
+      </c>
+      <c r="M35" s="8">
+        <v>0</v>
+      </c>
+      <c r="N35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="8">
+        <v>41624</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="8">
+        <v>80</v>
+      </c>
+      <c r="E36" s="8">
+        <v>12</v>
+      </c>
+      <c r="F36" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G36" s="8">
+        <v>7</v>
+      </c>
+      <c r="H36" s="8">
+        <v>550</v>
+      </c>
+      <c r="I36" s="8">
+        <v>5</v>
+      </c>
+      <c r="J36" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K36" s="8">
+        <v>35.064418000000003</v>
+      </c>
+      <c r="L36" s="8">
+        <v>2.0409999999984E-3</v>
+      </c>
+      <c r="M36" s="8">
+        <v>0</v>
+      </c>
+      <c r="N36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="8">
+        <v>41626</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="8">
+        <v>80</v>
+      </c>
+      <c r="E37" s="8">
+        <v>14</v>
+      </c>
+      <c r="F37" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G37" s="8">
+        <v>8</v>
+      </c>
+      <c r="H37" s="8">
+        <v>616</v>
+      </c>
+      <c r="I37" s="8">
+        <v>6</v>
+      </c>
+      <c r="J37" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K37" s="8">
+        <v>36.095564000000003</v>
+      </c>
+      <c r="L37" s="8">
+        <v>1.9209999999958401E-3</v>
+      </c>
+      <c r="M37" s="8">
+        <v>0</v>
+      </c>
+      <c r="N37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="8">
+        <v>41628</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="8">
+        <v>80</v>
+      </c>
+      <c r="E38" s="8">
+        <v>12</v>
+      </c>
+      <c r="F38" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G38" s="8">
+        <v>7</v>
+      </c>
+      <c r="H38" s="8">
+        <v>550</v>
+      </c>
+      <c r="I38" s="8">
+        <v>5</v>
+      </c>
+      <c r="J38" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K38" s="8">
+        <v>37.126969000000003</v>
+      </c>
+      <c r="L38" s="8">
+        <v>2.0139999999955098E-3</v>
+      </c>
+      <c r="M38" s="8">
+        <v>0</v>
+      </c>
+      <c r="N38" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="8">
+        <v>41630</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="8">
+        <v>80</v>
+      </c>
+      <c r="E39" s="8">
+        <v>12</v>
+      </c>
+      <c r="F39" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G39" s="8">
+        <v>7</v>
+      </c>
+      <c r="H39" s="8">
+        <v>550</v>
+      </c>
+      <c r="I39" s="8">
+        <v>5</v>
+      </c>
+      <c r="J39" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K39" s="8">
+        <v>38.158301000000002</v>
+      </c>
+      <c r="L39" s="8">
+        <v>1.9739999999970302E-3</v>
+      </c>
+      <c r="M39" s="8">
+        <v>0</v>
+      </c>
+      <c r="N39" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="8">
+        <v>41632</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="8">
+        <v>80</v>
+      </c>
+      <c r="E40" s="8">
+        <v>12</v>
+      </c>
+      <c r="F40" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G40" s="8">
+        <v>7</v>
+      </c>
+      <c r="H40" s="8">
+        <v>550</v>
+      </c>
+      <c r="I40" s="8">
+        <v>5</v>
+      </c>
+      <c r="J40" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K40" s="8">
+        <v>39.189712999999998</v>
+      </c>
+      <c r="L40" s="8">
+        <v>2.0110000000030902E-3</v>
+      </c>
+      <c r="M40" s="8">
+        <v>0</v>
+      </c>
+      <c r="N40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="8">
+        <v>41634</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="8">
+        <v>80</v>
+      </c>
+      <c r="E41" s="8">
+        <v>14</v>
+      </c>
+      <c r="F41" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G41" s="8">
+        <v>8</v>
+      </c>
+      <c r="H41" s="8">
+        <v>616</v>
+      </c>
+      <c r="I41" s="8">
+        <v>6</v>
+      </c>
+      <c r="J41" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K41" s="8">
+        <v>40.220897999999998</v>
+      </c>
+      <c r="L41" s="8">
+        <v>1.96600000000302E-3</v>
+      </c>
+      <c r="M41" s="8">
+        <v>0</v>
+      </c>
+      <c r="N41" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="8">
+        <v>41636</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="8">
+        <v>80</v>
+      </c>
+      <c r="E42" s="8">
+        <v>14</v>
+      </c>
+      <c r="F42" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G42" s="8">
+        <v>8</v>
+      </c>
+      <c r="H42" s="8">
+        <v>616</v>
+      </c>
+      <c r="I42" s="8">
+        <v>6</v>
+      </c>
+      <c r="J42" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K42" s="8">
+        <v>41.252155999999999</v>
+      </c>
+      <c r="L42" s="8">
+        <v>2.1529999999998399E-3</v>
+      </c>
+      <c r="M42" s="8">
+        <v>0</v>
+      </c>
+      <c r="N42" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="8">
+        <v>41638</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="8">
+        <v>80</v>
+      </c>
+      <c r="E43" s="8">
+        <v>12</v>
+      </c>
+      <c r="F43" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G43" s="8">
+        <v>7</v>
+      </c>
+      <c r="H43" s="8">
+        <v>550</v>
+      </c>
+      <c r="I43" s="8">
+        <v>5</v>
+      </c>
+      <c r="J43" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K43" s="8">
+        <v>42.283675000000002</v>
+      </c>
+      <c r="L43" s="8">
+        <v>2.0769999999998802E-3</v>
+      </c>
+      <c r="M43" s="8">
+        <v>0</v>
+      </c>
+      <c r="N43" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="8">
+        <v>41640</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="8">
+        <v>80</v>
+      </c>
+      <c r="E44" s="8">
+        <v>14</v>
+      </c>
+      <c r="F44" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G44" s="8">
+        <v>8</v>
+      </c>
+      <c r="H44" s="8">
+        <v>616</v>
+      </c>
+      <c r="I44" s="8">
+        <v>6</v>
+      </c>
+      <c r="J44" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K44" s="8">
+        <v>43.315035999999999</v>
+      </c>
+      <c r="L44" s="8">
+        <v>1.8560000000036299E-3</v>
+      </c>
+      <c r="M44" s="8">
+        <v>0</v>
+      </c>
+      <c r="N44" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="8">
+        <v>41642</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="8">
+        <v>80</v>
+      </c>
+      <c r="E45" s="8">
+        <v>14</v>
+      </c>
+      <c r="F45" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G45" s="8">
+        <v>8</v>
+      </c>
+      <c r="H45" s="8">
+        <v>616</v>
+      </c>
+      <c r="I45" s="8">
+        <v>6</v>
+      </c>
+      <c r="J45" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K45" s="8">
+        <v>44.346401</v>
+      </c>
+      <c r="L45" s="8">
+        <v>2.04000000000093E-3</v>
+      </c>
+      <c r="M45" s="8">
+        <v>0</v>
+      </c>
+      <c r="N45" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="8">
+        <v>41644</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="8">
+        <v>80</v>
+      </c>
+      <c r="E46" s="8">
+        <v>16</v>
+      </c>
+      <c r="F46" s="8">
+        <v>12325</v>
+      </c>
+      <c r="G46" s="8">
+        <v>9</v>
+      </c>
+      <c r="H46" s="8">
+        <v>682</v>
+      </c>
+      <c r="I46" s="8">
+        <v>7</v>
+      </c>
+      <c r="J46" s="8">
+        <v>11643</v>
+      </c>
+      <c r="K46" s="8">
+        <v>45.377814999999998</v>
+      </c>
+      <c r="L46" s="8">
+        <v>1.9220000000004199E-3</v>
+      </c>
+      <c r="M46" s="8">
+        <v>0</v>
+      </c>
+      <c r="N46" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="8">
+        <v>41646</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="8">
+        <v>80</v>
+      </c>
+      <c r="E47" s="8">
+        <v>16</v>
+      </c>
+      <c r="F47" s="8">
+        <v>12325</v>
+      </c>
+      <c r="G47" s="8">
+        <v>9</v>
+      </c>
+      <c r="H47" s="8">
+        <v>682</v>
+      </c>
+      <c r="I47" s="8">
+        <v>7</v>
+      </c>
+      <c r="J47" s="8">
+        <v>11643</v>
+      </c>
+      <c r="K47" s="8">
+        <v>46.408847999999999</v>
+      </c>
+      <c r="L47" s="8">
+        <v>1.98300000000273E-3</v>
+      </c>
+      <c r="M47" s="8">
+        <v>0</v>
+      </c>
+      <c r="N47" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="8">
+        <v>41648</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="8">
+        <v>80</v>
+      </c>
+      <c r="E48" s="8">
+        <v>12</v>
+      </c>
+      <c r="F48" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G48" s="8">
+        <v>7</v>
+      </c>
+      <c r="H48" s="8">
+        <v>550</v>
+      </c>
+      <c r="I48" s="8">
+        <v>5</v>
+      </c>
+      <c r="J48" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K48" s="8">
+        <v>47.440010000000001</v>
+      </c>
+      <c r="L48" s="8">
+        <v>2.0129999999980398E-3</v>
+      </c>
+      <c r="M48" s="8">
+        <v>0</v>
+      </c>
+      <c r="N48" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="8">
+        <v>41650</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="8">
+        <v>80</v>
+      </c>
+      <c r="E49" s="8">
+        <v>14</v>
+      </c>
+      <c r="F49" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G49" s="8">
+        <v>8</v>
+      </c>
+      <c r="H49" s="8">
+        <v>616</v>
+      </c>
+      <c r="I49" s="8">
+        <v>6</v>
+      </c>
+      <c r="J49" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K49" s="8">
+        <v>48.471344999999999</v>
+      </c>
+      <c r="L49" s="8">
+        <v>1.7690000000030099E-3</v>
+      </c>
+      <c r="M49" s="8">
+        <v>0</v>
+      </c>
+      <c r="N49" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="8">
+        <v>41652</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="8">
+        <v>80</v>
+      </c>
+      <c r="E50" s="8">
+        <v>12</v>
+      </c>
+      <c r="F50" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G50" s="8">
+        <v>7</v>
+      </c>
+      <c r="H50" s="8">
+        <v>550</v>
+      </c>
+      <c r="I50" s="8">
+        <v>5</v>
+      </c>
+      <c r="J50" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K50" s="8">
+        <v>49.502611000000002</v>
+      </c>
+      <c r="L50" s="8">
+        <v>1.9519999999957299E-3</v>
+      </c>
+      <c r="M50" s="8">
+        <v>0</v>
+      </c>
+      <c r="N50" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="8">
+        <v>41654</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="8">
+        <v>80</v>
+      </c>
+      <c r="E51" s="8">
+        <v>14</v>
+      </c>
+      <c r="F51" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G51" s="8">
+        <v>8</v>
+      </c>
+      <c r="H51" s="8">
+        <v>616</v>
+      </c>
+      <c r="I51" s="8">
+        <v>6</v>
+      </c>
+      <c r="J51" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K51" s="8">
+        <v>50.533852000000003</v>
+      </c>
+      <c r="L51" s="8">
+        <v>2.27100000000035E-3</v>
+      </c>
+      <c r="M51" s="8">
+        <v>0</v>
+      </c>
+      <c r="N51" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="8">
+        <v>41656</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="8">
+        <v>80</v>
+      </c>
+      <c r="E52" s="8">
+        <v>14</v>
+      </c>
+      <c r="F52" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G52" s="8">
+        <v>8</v>
+      </c>
+      <c r="H52" s="8">
+        <v>616</v>
+      </c>
+      <c r="I52" s="8">
+        <v>6</v>
+      </c>
+      <c r="J52" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K52" s="8">
+        <v>51.564884999999997</v>
+      </c>
+      <c r="L52" s="8">
+        <v>2.0170000000021499E-3</v>
+      </c>
+      <c r="M52" s="8">
+        <v>0</v>
+      </c>
+      <c r="N52" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="8">
+        <v>41658</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="8">
+        <v>80</v>
+      </c>
+      <c r="E53" s="8">
+        <v>14</v>
+      </c>
+      <c r="F53" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G53" s="8">
+        <v>8</v>
+      </c>
+      <c r="H53" s="8">
+        <v>616</v>
+      </c>
+      <c r="I53" s="8">
+        <v>6</v>
+      </c>
+      <c r="J53" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K53" s="8">
+        <v>52.595927000000003</v>
+      </c>
+      <c r="L53" s="8">
+        <v>1.9199999999983601E-3</v>
+      </c>
+      <c r="M53" s="8">
+        <v>0</v>
+      </c>
+      <c r="N53" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="8">
+        <v>41660</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="8">
+        <v>80</v>
+      </c>
+      <c r="E54" s="8">
+        <v>14</v>
+      </c>
+      <c r="F54" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G54" s="8">
+        <v>8</v>
+      </c>
+      <c r="H54" s="8">
+        <v>616</v>
+      </c>
+      <c r="I54" s="8">
+        <v>6</v>
+      </c>
+      <c r="J54" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K54" s="8">
+        <v>53.627135000000003</v>
+      </c>
+      <c r="L54" s="8">
+        <v>1.95499999999526E-3</v>
+      </c>
+      <c r="M54" s="8">
+        <v>0</v>
+      </c>
+      <c r="N54" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="8">
+        <v>41662</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="8">
+        <v>80</v>
+      </c>
+      <c r="E55" s="8">
+        <v>12</v>
+      </c>
+      <c r="F55" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G55" s="8">
+        <v>7</v>
+      </c>
+      <c r="H55" s="8">
+        <v>550</v>
+      </c>
+      <c r="I55" s="8">
+        <v>5</v>
+      </c>
+      <c r="J55" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K55" s="8">
+        <v>54.658164999999997</v>
+      </c>
+      <c r="L55" s="8">
+        <v>1.8710000000012801E-3</v>
+      </c>
+      <c r="M55" s="8">
+        <v>0</v>
+      </c>
+      <c r="N55" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="8">
+        <v>41664</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="8">
+        <v>80</v>
+      </c>
+      <c r="E56" s="8">
+        <v>14</v>
+      </c>
+      <c r="F56" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G56" s="8">
+        <v>8</v>
+      </c>
+      <c r="H56" s="8">
+        <v>616</v>
+      </c>
+      <c r="I56" s="8">
+        <v>6</v>
+      </c>
+      <c r="J56" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K56" s="8">
+        <v>55.689368999999999</v>
+      </c>
+      <c r="L56" s="8">
+        <v>2.1109999999993001E-3</v>
+      </c>
+      <c r="M56" s="8">
+        <v>0</v>
+      </c>
+      <c r="N56" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="8">
+        <v>41666</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="8">
+        <v>80</v>
+      </c>
+      <c r="E57" s="8">
+        <v>12</v>
+      </c>
+      <c r="F57" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G57" s="8">
+        <v>7</v>
+      </c>
+      <c r="H57" s="8">
+        <v>550</v>
+      </c>
+      <c r="I57" s="8">
+        <v>5</v>
+      </c>
+      <c r="J57" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K57" s="8">
+        <v>56.720647999999997</v>
+      </c>
+      <c r="L57" s="8">
+        <v>2.0280000000028001E-3</v>
+      </c>
+      <c r="M57" s="8">
+        <v>0</v>
+      </c>
+      <c r="N57" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="8">
+        <v>41668</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="8">
+        <v>80</v>
+      </c>
+      <c r="E58" s="8">
+        <v>14</v>
+      </c>
+      <c r="F58" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G58" s="8">
+        <v>8</v>
+      </c>
+      <c r="H58" s="8">
+        <v>616</v>
+      </c>
+      <c r="I58" s="8">
+        <v>6</v>
+      </c>
+      <c r="J58" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K58" s="8">
+        <v>57.751894</v>
+      </c>
+      <c r="L58" s="8">
+        <v>2.12899999999649E-3</v>
+      </c>
+      <c r="M58" s="8">
+        <v>0</v>
+      </c>
+      <c r="N58" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="8">
+        <v>41670</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="8">
+        <v>80</v>
+      </c>
+      <c r="E59" s="8">
+        <v>14</v>
+      </c>
+      <c r="F59" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G59" s="8">
+        <v>8</v>
+      </c>
+      <c r="H59" s="8">
+        <v>616</v>
+      </c>
+      <c r="I59" s="8">
+        <v>6</v>
+      </c>
+      <c r="J59" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K59" s="8">
+        <v>58.783279999999998</v>
+      </c>
+      <c r="L59" s="8">
+        <v>1.8820000000019301E-3</v>
+      </c>
+      <c r="M59" s="8">
+        <v>0</v>
+      </c>
+      <c r="N59" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="8">
+        <v>41672</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="8">
+        <v>80</v>
+      </c>
+      <c r="E60" s="8">
+        <v>14</v>
+      </c>
+      <c r="F60" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G60" s="8">
+        <v>8</v>
+      </c>
+      <c r="H60" s="8">
+        <v>616</v>
+      </c>
+      <c r="I60" s="8">
+        <v>6</v>
+      </c>
+      <c r="J60" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K60" s="8">
+        <v>59.815962999999897</v>
+      </c>
+      <c r="L60" s="8">
+        <v>1.9410000000021901E-3</v>
+      </c>
+      <c r="M60" s="8">
+        <v>0</v>
+      </c>
+      <c r="N60" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="8">
+        <v>41674</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="8">
+        <v>80</v>
+      </c>
+      <c r="E61" s="8">
+        <v>14</v>
+      </c>
+      <c r="F61" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G61" s="8">
+        <v>8</v>
+      </c>
+      <c r="H61" s="8">
+        <v>616</v>
+      </c>
+      <c r="I61" s="8">
+        <v>6</v>
+      </c>
+      <c r="J61" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K61" s="8">
+        <v>60.847085</v>
+      </c>
+      <c r="L61" s="8">
+        <v>2.0150000000001E-3</v>
+      </c>
+      <c r="M61" s="8">
+        <v>0</v>
+      </c>
+      <c r="N61" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="8">
+        <v>41676</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="8">
+        <v>80</v>
+      </c>
+      <c r="E62" s="8">
+        <v>14</v>
+      </c>
+      <c r="F62" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G62" s="8">
+        <v>8</v>
+      </c>
+      <c r="H62" s="8">
+        <v>616</v>
+      </c>
+      <c r="I62" s="8">
+        <v>6</v>
+      </c>
+      <c r="J62" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K62" s="8">
+        <v>61.878507999999997</v>
+      </c>
+      <c r="L62" s="8">
+        <v>1.9870000000068401E-3</v>
+      </c>
+      <c r="M62" s="8">
+        <v>0</v>
+      </c>
+      <c r="N62" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="8">
+        <v>41678</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="8">
+        <v>80</v>
+      </c>
+      <c r="E63" s="8">
+        <v>14</v>
+      </c>
+      <c r="F63" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G63" s="8">
+        <v>8</v>
+      </c>
+      <c r="H63" s="8">
+        <v>616</v>
+      </c>
+      <c r="I63" s="8">
+        <v>6</v>
+      </c>
+      <c r="J63" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K63" s="8">
+        <v>62.909630999999997</v>
+      </c>
+      <c r="L63" s="8">
+        <v>2.06200000000222E-3</v>
+      </c>
+      <c r="M63" s="8">
+        <v>0</v>
+      </c>
+      <c r="N63" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="8">
+        <v>41680</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="8">
+        <v>80</v>
+      </c>
+      <c r="E64" s="8">
+        <v>14</v>
+      </c>
+      <c r="F64" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G64" s="8">
+        <v>8</v>
+      </c>
+      <c r="H64" s="8">
+        <v>616</v>
+      </c>
+      <c r="I64" s="8">
+        <v>6</v>
+      </c>
+      <c r="J64" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K64" s="8">
+        <v>63.940914999999997</v>
+      </c>
+      <c r="L64" s="8">
+        <v>1.9670000000004901E-3</v>
+      </c>
+      <c r="M64" s="8">
+        <v>0</v>
+      </c>
+      <c r="N64" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="8">
+        <v>41682</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="8">
+        <v>80</v>
+      </c>
+      <c r="E65" s="8">
+        <v>14</v>
+      </c>
+      <c r="F65" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G65" s="8">
+        <v>8</v>
+      </c>
+      <c r="H65" s="8">
+        <v>616</v>
+      </c>
+      <c r="I65" s="8">
+        <v>6</v>
+      </c>
+      <c r="J65" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K65" s="8">
+        <v>64.972219999999993</v>
+      </c>
+      <c r="L65" s="8">
+        <v>1.90600000000529E-3</v>
+      </c>
+      <c r="M65" s="8">
+        <v>0</v>
+      </c>
+      <c r="N65" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="8">
+        <v>41684</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="8">
+        <v>80</v>
+      </c>
+      <c r="E66" s="8">
+        <v>14</v>
+      </c>
+      <c r="F66" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G66" s="8">
+        <v>8</v>
+      </c>
+      <c r="H66" s="8">
+        <v>616</v>
+      </c>
+      <c r="I66" s="8">
+        <v>6</v>
+      </c>
+      <c r="J66" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K66" s="8">
+        <v>66.003583000000006</v>
+      </c>
+      <c r="L66" s="8">
+        <v>1.9899999999921599E-3</v>
+      </c>
+      <c r="M66" s="8">
+        <v>0</v>
+      </c>
+      <c r="N66" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" s="8">
+        <v>41686</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="8">
+        <v>80</v>
+      </c>
+      <c r="E67" s="8">
+        <v>12</v>
+      </c>
+      <c r="F67" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G67" s="8">
+        <v>7</v>
+      </c>
+      <c r="H67" s="8">
+        <v>550</v>
+      </c>
+      <c r="I67" s="8">
+        <v>5</v>
+      </c>
+      <c r="J67" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K67" s="8">
+        <v>67.034700999999998</v>
+      </c>
+      <c r="L67" s="8">
+        <v>2.1190000000075298E-3</v>
+      </c>
+      <c r="M67" s="8">
+        <v>0</v>
+      </c>
+      <c r="N67" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="8">
+        <v>41688</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="8">
+        <v>80</v>
+      </c>
+      <c r="E68" s="8">
+        <v>12</v>
+      </c>
+      <c r="F68" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G68" s="8">
+        <v>7</v>
+      </c>
+      <c r="H68" s="8">
+        <v>550</v>
+      </c>
+      <c r="I68" s="8">
+        <v>5</v>
+      </c>
+      <c r="J68" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K68" s="8">
+        <v>68.065961999999999</v>
+      </c>
+      <c r="L68" s="8">
+        <v>2.14900000000284E-3</v>
+      </c>
+      <c r="M68" s="8">
+        <v>0</v>
+      </c>
+      <c r="N68" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="8">
+        <v>41690</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="8">
+        <v>80</v>
+      </c>
+      <c r="E69" s="8">
+        <v>12</v>
+      </c>
+      <c r="F69" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G69" s="8">
+        <v>7</v>
+      </c>
+      <c r="H69" s="8">
+        <v>550</v>
+      </c>
+      <c r="I69" s="8">
+        <v>5</v>
+      </c>
+      <c r="J69" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K69" s="8">
+        <v>69.097489999999993</v>
+      </c>
+      <c r="L69" s="8">
+        <v>2.1690000000091901E-3</v>
+      </c>
+      <c r="M69" s="8">
+        <v>0</v>
+      </c>
+      <c r="N69" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="8">
+        <v>41692</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="8">
+        <v>80</v>
+      </c>
+      <c r="E70" s="8">
+        <v>12</v>
+      </c>
+      <c r="F70" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G70" s="8">
+        <v>7</v>
+      </c>
+      <c r="H70" s="8">
+        <v>550</v>
+      </c>
+      <c r="I70" s="8">
+        <v>5</v>
+      </c>
+      <c r="J70" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K70" s="8">
+        <v>70.128950000000003</v>
+      </c>
+      <c r="L70" s="8">
+        <v>2.0480000000020399E-3</v>
+      </c>
+      <c r="M70" s="8">
+        <v>0</v>
+      </c>
+      <c r="N70" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="8">
+        <v>41694</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="8">
+        <v>80</v>
+      </c>
+      <c r="E71" s="8">
+        <v>14</v>
+      </c>
+      <c r="F71" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G71" s="8">
+        <v>8</v>
+      </c>
+      <c r="H71" s="8">
+        <v>616</v>
+      </c>
+      <c r="I71" s="8">
+        <v>6</v>
+      </c>
+      <c r="J71" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K71" s="8">
+        <v>71.160426999999999</v>
+      </c>
+      <c r="L71" s="8">
+        <v>1.9099999999951901E-3</v>
+      </c>
+      <c r="M71" s="8">
+        <v>0</v>
+      </c>
+      <c r="N71" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="8">
+        <v>41696</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="8">
+        <v>80</v>
+      </c>
+      <c r="E72" s="8">
+        <v>14</v>
+      </c>
+      <c r="F72" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G72" s="8">
+        <v>8</v>
+      </c>
+      <c r="H72" s="8">
+        <v>616</v>
+      </c>
+      <c r="I72" s="8">
+        <v>6</v>
+      </c>
+      <c r="J72" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K72" s="8">
+        <v>72.191920999999994</v>
+      </c>
+      <c r="L72" s="8">
+        <v>2.01400000000262E-3</v>
+      </c>
+      <c r="M72" s="8">
+        <v>0</v>
+      </c>
+      <c r="N72" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="8">
+        <v>41698</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="8">
+        <v>80</v>
+      </c>
+      <c r="E73" s="8">
+        <v>14</v>
+      </c>
+      <c r="F73" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G73" s="8">
+        <v>8</v>
+      </c>
+      <c r="H73" s="8">
+        <v>616</v>
+      </c>
+      <c r="I73" s="8">
+        <v>6</v>
+      </c>
+      <c r="J73" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K73" s="8">
+        <v>73.223269999999999</v>
+      </c>
+      <c r="L73" s="8">
+        <v>2.0619999999951198E-3</v>
+      </c>
+      <c r="M73" s="8">
+        <v>0</v>
+      </c>
+      <c r="N73" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" s="8">
+        <v>41700</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="8">
+        <v>80</v>
+      </c>
+      <c r="E74" s="8">
+        <v>14</v>
+      </c>
+      <c r="F74" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G74" s="8">
+        <v>8</v>
+      </c>
+      <c r="H74" s="8">
+        <v>616</v>
+      </c>
+      <c r="I74" s="8">
+        <v>6</v>
+      </c>
+      <c r="J74" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K74" s="8">
+        <v>74.254547000000002</v>
+      </c>
+      <c r="L74" s="8">
+        <v>1.8740000000008099E-3</v>
+      </c>
+      <c r="M74" s="8">
+        <v>0</v>
+      </c>
+      <c r="N74" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="8">
+        <v>41702</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="8">
+        <v>80</v>
+      </c>
+      <c r="E75" s="8">
+        <v>12</v>
+      </c>
+      <c r="F75" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G75" s="8">
+        <v>7</v>
+      </c>
+      <c r="H75" s="8">
+        <v>550</v>
+      </c>
+      <c r="I75" s="8">
+        <v>5</v>
+      </c>
+      <c r="J75" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K75" s="8">
+        <v>75.285702999999998</v>
+      </c>
+      <c r="L75" s="8">
+        <v>2.1169999999983702E-3</v>
+      </c>
+      <c r="M75" s="8">
+        <v>0</v>
+      </c>
+      <c r="N75" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" s="8">
+        <v>41704</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="8">
+        <v>80</v>
+      </c>
+      <c r="E76" s="8">
+        <v>12</v>
+      </c>
+      <c r="F76" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G76" s="8">
+        <v>7</v>
+      </c>
+      <c r="H76" s="8">
+        <v>550</v>
+      </c>
+      <c r="I76" s="8">
+        <v>5</v>
+      </c>
+      <c r="J76" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K76" s="8">
+        <v>76.316963999999999</v>
+      </c>
+      <c r="L76" s="8">
+        <v>1.9479999999987201E-3</v>
+      </c>
+      <c r="M76" s="8">
+        <v>0</v>
+      </c>
+      <c r="N76" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" s="8">
+        <v>41706</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="8">
+        <v>80</v>
+      </c>
+      <c r="E77" s="8">
+        <v>12</v>
+      </c>
+      <c r="F77" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G77" s="8">
+        <v>7</v>
+      </c>
+      <c r="H77" s="8">
+        <v>550</v>
+      </c>
+      <c r="I77" s="8">
+        <v>5</v>
+      </c>
+      <c r="J77" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K77" s="8">
+        <v>77.348371</v>
+      </c>
+      <c r="L77" s="8">
+        <v>2.1370000000047098E-3</v>
+      </c>
+      <c r="M77" s="8">
+        <v>0</v>
+      </c>
+      <c r="N77" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="8">
+        <v>41708</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="8">
+        <v>80</v>
+      </c>
+      <c r="E78" s="8">
+        <v>12</v>
+      </c>
+      <c r="F78" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G78" s="8">
+        <v>7</v>
+      </c>
+      <c r="H78" s="8">
+        <v>550</v>
+      </c>
+      <c r="I78" s="8">
+        <v>5</v>
+      </c>
+      <c r="J78" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K78" s="8">
+        <v>78.379726000000005</v>
+      </c>
+      <c r="L78" s="8">
+        <v>2.0279999999956999E-3</v>
+      </c>
+      <c r="M78" s="8">
+        <v>0</v>
+      </c>
+      <c r="N78" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="8">
+        <v>41710</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="8">
+        <v>80</v>
+      </c>
+      <c r="E79" s="8">
+        <v>12</v>
+      </c>
+      <c r="F79" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G79" s="8">
+        <v>7</v>
+      </c>
+      <c r="H79" s="8">
+        <v>550</v>
+      </c>
+      <c r="I79" s="8">
+        <v>5</v>
+      </c>
+      <c r="J79" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K79" s="8">
+        <v>79.410966000000002</v>
+      </c>
+      <c r="L79" s="8">
+        <v>2.03100000000233E-3</v>
+      </c>
+      <c r="M79" s="8">
+        <v>0</v>
+      </c>
+      <c r="N79" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="8">
+        <v>41712</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="8">
+        <v>80</v>
+      </c>
+      <c r="E80" s="8">
+        <v>14</v>
+      </c>
+      <c r="F80" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G80" s="8">
+        <v>8</v>
+      </c>
+      <c r="H80" s="8">
+        <v>616</v>
+      </c>
+      <c r="I80" s="8">
+        <v>6</v>
+      </c>
+      <c r="J80" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K80" s="8">
+        <v>80.442223999999996</v>
+      </c>
+      <c r="L80" s="8">
+        <v>2.0180000000067301E-3</v>
+      </c>
+      <c r="M80" s="8">
+        <v>0</v>
+      </c>
+      <c r="N80" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="8">
+        <v>41714</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="8">
+        <v>80</v>
+      </c>
+      <c r="E81" s="8">
+        <v>14</v>
+      </c>
+      <c r="F81" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G81" s="8">
+        <v>8</v>
+      </c>
+      <c r="H81" s="8">
+        <v>616</v>
+      </c>
+      <c r="I81" s="8">
+        <v>6</v>
+      </c>
+      <c r="J81" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K81" s="8">
+        <v>81.473607999999999</v>
+      </c>
+      <c r="L81" s="8">
+        <v>2.0820000000014698E-3</v>
+      </c>
+      <c r="M81" s="8">
+        <v>0</v>
+      </c>
+      <c r="N81" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="8">
+        <v>41716</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="8">
+        <v>80</v>
+      </c>
+      <c r="E82" s="8">
+        <v>14</v>
+      </c>
+      <c r="F82" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G82" s="8">
+        <v>8</v>
+      </c>
+      <c r="H82" s="8">
+        <v>616</v>
+      </c>
+      <c r="I82" s="8">
+        <v>6</v>
+      </c>
+      <c r="J82" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K82" s="8">
+        <v>82.504966999999994</v>
+      </c>
+      <c r="L82" s="8">
+        <v>2.1140000000059401E-3</v>
+      </c>
+      <c r="M82" s="8">
+        <v>0</v>
+      </c>
+      <c r="N82" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" s="8">
+        <v>41718</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="8">
+        <v>80</v>
+      </c>
+      <c r="E83" s="8">
+        <v>14</v>
+      </c>
+      <c r="F83" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G83" s="8">
+        <v>8</v>
+      </c>
+      <c r="H83" s="8">
+        <v>616</v>
+      </c>
+      <c r="I83" s="8">
+        <v>6</v>
+      </c>
+      <c r="J83" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K83" s="8">
+        <v>83.536441999999994</v>
+      </c>
+      <c r="L83" s="8">
+        <v>1.87999999999988E-3</v>
+      </c>
+      <c r="M83" s="8">
+        <v>0</v>
+      </c>
+      <c r="N83" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84" s="8">
+        <v>41720</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="8">
+        <v>80</v>
+      </c>
+      <c r="E84" s="8">
+        <v>14</v>
+      </c>
+      <c r="F84" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G84" s="8">
+        <v>8</v>
+      </c>
+      <c r="H84" s="8">
+        <v>616</v>
+      </c>
+      <c r="I84" s="8">
+        <v>6</v>
+      </c>
+      <c r="J84" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K84" s="8">
+        <v>84.571763000000004</v>
+      </c>
+      <c r="L84" s="8">
+        <v>1.8439999999912901E-3</v>
+      </c>
+      <c r="M84" s="8">
+        <v>0</v>
+      </c>
+      <c r="N84" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="8">
+        <v>41722</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="8">
+        <v>80</v>
+      </c>
+      <c r="E85" s="8">
+        <v>12</v>
+      </c>
+      <c r="F85" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G85" s="8">
+        <v>7</v>
+      </c>
+      <c r="H85" s="8">
+        <v>550</v>
+      </c>
+      <c r="I85" s="8">
+        <v>5</v>
+      </c>
+      <c r="J85" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K85" s="8">
+        <v>85.603962999999993</v>
+      </c>
+      <c r="L85" s="8">
+        <v>2.0460000000070899E-3</v>
+      </c>
+      <c r="M85" s="8">
+        <v>0</v>
+      </c>
+      <c r="N85" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" s="8">
+        <v>41724</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="8">
+        <v>80</v>
+      </c>
+      <c r="E86" s="8">
+        <v>12</v>
+      </c>
+      <c r="F86" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G86" s="8">
+        <v>7</v>
+      </c>
+      <c r="H86" s="8">
+        <v>550</v>
+      </c>
+      <c r="I86" s="8">
+        <v>5</v>
+      </c>
+      <c r="J86" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K86" s="8">
+        <v>86.635639999999995</v>
+      </c>
+      <c r="L86" s="8">
+        <v>2.0610000000118498E-3</v>
+      </c>
+      <c r="M86" s="8">
+        <v>0</v>
+      </c>
+      <c r="N86" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" s="8">
+        <v>41726</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="8">
+        <v>80</v>
+      </c>
+      <c r="E87" s="8">
+        <v>14</v>
+      </c>
+      <c r="F87" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G87" s="8">
+        <v>8</v>
+      </c>
+      <c r="H87" s="8">
+        <v>616</v>
+      </c>
+      <c r="I87" s="8">
+        <v>6</v>
+      </c>
+      <c r="J87" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K87" s="8">
+        <v>87.667062000000001</v>
+      </c>
+      <c r="L87" s="8">
+        <v>2.1330000000006001E-3</v>
+      </c>
+      <c r="M87" s="8">
+        <v>0</v>
+      </c>
+      <c r="N87" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" s="8">
+        <v>41728</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="8">
+        <v>80</v>
+      </c>
+      <c r="E88" s="8">
+        <v>14</v>
+      </c>
+      <c r="F88" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G88" s="8">
+        <v>8</v>
+      </c>
+      <c r="H88" s="8">
+        <v>616</v>
+      </c>
+      <c r="I88" s="8">
+        <v>6</v>
+      </c>
+      <c r="J88" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K88" s="8">
+        <v>88.698320999999893</v>
+      </c>
+      <c r="L88" s="8">
+        <v>2.07000000000334E-3</v>
+      </c>
+      <c r="M88" s="8">
+        <v>0</v>
+      </c>
+      <c r="N88" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" s="8">
+        <v>41730</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="8">
+        <v>80</v>
+      </c>
+      <c r="E89" s="8">
+        <v>12</v>
+      </c>
+      <c r="F89" s="8">
+        <v>12061</v>
+      </c>
+      <c r="G89" s="8">
+        <v>7</v>
+      </c>
+      <c r="H89" s="8">
+        <v>550</v>
+      </c>
+      <c r="I89" s="8">
+        <v>5</v>
+      </c>
+      <c r="J89" s="8">
+        <v>11511</v>
+      </c>
+      <c r="K89" s="8">
+        <v>89.729787000000002</v>
+      </c>
+      <c r="L89" s="8">
+        <v>2.1959999999978598E-3</v>
+      </c>
+      <c r="M89" s="8">
+        <v>0</v>
+      </c>
+      <c r="N89" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" s="8">
+        <v>41732</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="8">
+        <v>80</v>
+      </c>
+      <c r="E90" s="8">
+        <v>14</v>
+      </c>
+      <c r="F90" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G90" s="8">
+        <v>8</v>
+      </c>
+      <c r="H90" s="8">
+        <v>616</v>
+      </c>
+      <c r="I90" s="8">
+        <v>6</v>
+      </c>
+      <c r="J90" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K90" s="8">
+        <v>90.761145999999997</v>
+      </c>
+      <c r="L90" s="8">
+        <v>1.87700000000745E-3</v>
+      </c>
+      <c r="M90" s="8">
+        <v>0</v>
+      </c>
+      <c r="N90" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B91" s="8">
+        <v>41734</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="8">
+        <v>80</v>
+      </c>
+      <c r="E91" s="8">
+        <v>14</v>
+      </c>
+      <c r="F91" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G91" s="8">
+        <v>8</v>
+      </c>
+      <c r="H91" s="8">
+        <v>616</v>
+      </c>
+      <c r="I91" s="8">
+        <v>6</v>
+      </c>
+      <c r="J91" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K91" s="8">
+        <v>91.792276000000001</v>
+      </c>
+      <c r="L91" s="8">
+        <v>1.84099999999887E-3</v>
+      </c>
+      <c r="M91" s="8">
+        <v>0</v>
+      </c>
+      <c r="N91" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92" s="8">
+        <v>41736</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="8">
+        <v>80</v>
+      </c>
+      <c r="E92" s="8">
+        <v>14</v>
+      </c>
+      <c r="F92" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G92" s="8">
+        <v>8</v>
+      </c>
+      <c r="H92" s="8">
+        <v>616</v>
+      </c>
+      <c r="I92" s="8">
+        <v>6</v>
+      </c>
+      <c r="J92" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K92" s="8">
+        <v>92.823576000000003</v>
+      </c>
+      <c r="L92" s="8">
+        <v>2.0399999999938202E-3</v>
+      </c>
+      <c r="M92" s="8">
+        <v>0</v>
+      </c>
+      <c r="N92" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" s="8">
+        <v>41738</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="8">
+        <v>80</v>
+      </c>
+      <c r="E93" s="8">
+        <v>14</v>
+      </c>
+      <c r="F93" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G93" s="8">
+        <v>8</v>
+      </c>
+      <c r="H93" s="8">
+        <v>616</v>
+      </c>
+      <c r="I93" s="8">
+        <v>6</v>
+      </c>
+      <c r="J93" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K93" s="8">
+        <v>93.854906999999997</v>
+      </c>
+      <c r="L93" s="8">
+        <v>2.1050000000002399E-3</v>
+      </c>
+      <c r="M93" s="8">
+        <v>0</v>
+      </c>
+      <c r="N93" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" s="8">
+        <v>41740</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="8">
+        <v>80</v>
+      </c>
+      <c r="E94" s="8">
+        <v>14</v>
+      </c>
+      <c r="F94" s="8">
+        <v>12193</v>
+      </c>
+      <c r="G94" s="8">
+        <v>8</v>
+      </c>
+      <c r="H94" s="8">
+        <v>616</v>
+      </c>
+      <c r="I94" s="8">
+        <v>6</v>
+      </c>
+      <c r="J94" s="8">
+        <v>11577</v>
+      </c>
+      <c r="K94" s="8">
+        <v>94.886381</v>
+      </c>
+      <c r="L94" s="8">
+        <v>1.9690000000025499E-3</v>
+      </c>
+      <c r="M94" s="8">
+        <v>0</v>
+      </c>
+      <c r="N94" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N94">
+    <sortCondition ref="K1:K94"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>